--- a/techniqo/data_new_ticker/AAVAS.xlsx
+++ b/techniqo/data_new_ticker/AAVAS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G480"/>
+  <dimension ref="A1:G482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17186,6 +17186,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>1384.9</v>
+      </c>
+      <c r="C481" t="n">
+        <v>1440</v>
+      </c>
+      <c r="D481" t="n">
+        <v>1370.45</v>
+      </c>
+      <c r="E481" t="n">
+        <v>1423.25</v>
+      </c>
+      <c r="F481" t="n">
+        <v>456921</v>
+      </c>
+      <c r="G481" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>1436</v>
+      </c>
+      <c r="C482" t="n">
+        <v>1442</v>
+      </c>
+      <c r="D482" t="n">
+        <v>1362.9</v>
+      </c>
+      <c r="E482" t="n">
+        <v>1387.2</v>
+      </c>
+      <c r="F482" t="n">
+        <v>350470</v>
+      </c>
+      <c r="G482" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/AAVAS.xlsx
+++ b/techniqo/data_new_ticker/AAVAS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G482"/>
+  <dimension ref="A1:G484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17236,6 +17236,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>1388</v>
+      </c>
+      <c r="C483" t="n">
+        <v>1414</v>
+      </c>
+      <c r="D483" t="n">
+        <v>1370</v>
+      </c>
+      <c r="E483" t="n">
+        <v>1392.5</v>
+      </c>
+      <c r="F483" t="n">
+        <v>27011</v>
+      </c>
+      <c r="G483" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>1419.95</v>
+      </c>
+      <c r="C484" t="n">
+        <v>1420</v>
+      </c>
+      <c r="D484" t="n">
+        <v>1381.1</v>
+      </c>
+      <c r="E484" t="n">
+        <v>1397.5</v>
+      </c>
+      <c r="F484" t="n">
+        <v>63407</v>
+      </c>
+      <c r="G484" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
